--- a/로스트아크/데이터테이블/SkillEffect_Parameter_Table(데이터 추가).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Parameter_Table(데이터 추가).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535F88F5-A6CD-4D7A-81AB-951248533F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BFFC67-1987-45C6-ACA1-62FADCBA9904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="1848" yWindow="3324" windowWidth="17280" windowHeight="8880" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,96 +138,11 @@
     <t>피격 이상</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1차 공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_1)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2차 공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_2)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3차 공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_3)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">돌진 공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_4)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>청룡진 (변형 1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">투사체 충돌 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_1)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -293,57 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1차 폭발 공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_2)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2차 폭발 공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_3)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3차 폭발 공격 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dmg_4)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skill_effect_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -471,6 +335,142 @@
     <t>effect_param_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">투사체 충돌 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1차 폭발 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2차 폭발 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_3)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3차 폭발 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_4)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1차 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2차 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3차 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_3)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">돌진 공격 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dmg_4)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -481,7 +481,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,8 +591,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -637,12 +654,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -894,50 +929,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="dotted">
         <color theme="0" tint="-0.14999847407452621"/>
       </right>
@@ -947,54 +938,151 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
-      <right style="dotted">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="dotted">
-        <color theme="0" tint="-0.14999847407452621"/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
-      <right style="dotted">
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
         <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
-      <right style="dotted">
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
         <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1003,7 +1091,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1160,21 +1248,21 @@
     <xf numFmtId="177" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1184,41 +1272,89 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1564,12 +1700,12 @@
     <row r="1" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C2" s="57" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D2" s="58"/>
       <c r="E2" s="59"/>
       <c r="F2" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1591,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>0</v>
@@ -1609,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
@@ -1627,13 +1763,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -1642,13 +1778,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E7" s="44" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
@@ -1657,11 +1793,11 @@
         <v>3</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E8" s="44"/>
       <c r="F8" s="45" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -1760,8 +1896,8 @@
   <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1780,21 +1916,21 @@
     <col min="19" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:18" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="51" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1811,19 +1947,19 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="70">
+        <v>3050000</v>
+      </c>
+      <c r="D2" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="16">
-        <v>3050000</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="16">
+      <c r="E2" s="70">
         <v>50</v>
       </c>
       <c r="F2" s="19"/>
@@ -1841,15 +1977,15 @@
       <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="69"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="16">
+      <c r="A3" s="67"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70">
         <v>3050000</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="16">
+      <c r="D3" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="70">
         <v>3</v>
       </c>
       <c r="F3" s="19"/>
@@ -1867,17 +2003,17 @@
       <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="69"/>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="70">
+        <v>3050001</v>
+      </c>
+      <c r="D4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="16">
-        <v>3050001</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="E4" s="70">
         <v>80</v>
       </c>
       <c r="F4" s="19"/>
@@ -1894,16 +2030,16 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="70"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="16">
+    <row r="5" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74">
         <v>3050001</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="16">
+      <c r="D5" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="74">
         <v>1</v>
       </c>
       <c r="F5" s="19"/>
@@ -1921,19 +2057,19 @@
       <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="78">
+        <v>3050010</v>
+      </c>
+      <c r="D6" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="16">
-        <v>3050010</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="E6" s="78">
         <v>30</v>
       </c>
       <c r="F6" s="19"/>
@@ -1950,16 +2086,16 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="70"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="16">
+    <row r="7" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="74">
         <v>3050010</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="D7" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="74">
         <v>1</v>
       </c>
       <c r="F7" s="19"/>
@@ -1976,46 +2112,38 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="56" t="s">
-        <v>31</v>
+    <row r="8" spans="1:18" s="54" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="55" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8"/>
     </row>
     <row r="9" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="B9" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="70">
         <v>3051800</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="D9" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="70">
         <v>2</v>
       </c>
       <c r="F9" s="19"/>
@@ -2033,15 +2161,15 @@
       <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="69"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="16">
+      <c r="A10" s="63"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="70">
         <v>3051800</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="D10" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="70">
         <v>6</v>
       </c>
       <c r="F10" s="19"/>
@@ -2059,17 +2187,17 @@
       <c r="R10" s="12"/>
     </row>
     <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="69"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="70">
+        <v>3051801</v>
+      </c>
+      <c r="D11" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="16">
-        <v>3051801</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="16">
+      <c r="E11" s="70">
         <v>727</v>
       </c>
       <c r="F11" s="17"/>
@@ -2087,15 +2215,15 @@
       <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="69"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="16">
+      <c r="A12" s="63"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="70">
         <v>3051801</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="16">
+      <c r="D12" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="70">
         <v>1</v>
       </c>
       <c r="F12" s="17"/>
@@ -2113,15 +2241,15 @@
       <c r="R12" s="12"/>
     </row>
     <row r="13" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="69"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="16">
+      <c r="A13" s="63"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="70">
         <v>3051801</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="16">
+      <c r="D13" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="70">
         <v>29</v>
       </c>
       <c r="F13" s="17"/>
@@ -2138,16 +2266,16 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
     </row>
-    <row r="14" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="70"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="16">
+    <row r="14" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="74">
         <v>3051801</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="16">
+      <c r="D14" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="74">
         <v>1</v>
       </c>
       <c r="F14" s="17"/>
@@ -2165,19 +2293,19 @@
       <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="16">
+      <c r="A15" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="78">
         <v>3051810</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="16">
+      <c r="D15" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="78">
         <v>2</v>
       </c>
       <c r="F15" s="17"/>
@@ -2195,15 +2323,15 @@
       <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="69"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="16">
+      <c r="A16" s="63"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="70">
         <v>3051810</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="16">
+      <c r="D16" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="70">
         <v>6</v>
       </c>
       <c r="F16" s="17"/>
@@ -2221,17 +2349,17 @@
       <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="69"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="70">
+        <v>3051811</v>
+      </c>
+      <c r="D17" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="16">
-        <v>3051811</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="16">
+      <c r="E17" s="70">
         <v>727</v>
       </c>
       <c r="F17" s="17"/>
@@ -2249,15 +2377,15 @@
       <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="69"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="16">
+      <c r="A18" s="63"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="70">
         <v>3051811</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="16">
+      <c r="D18" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="70">
         <v>1</v>
       </c>
       <c r="F18" s="17"/>
@@ -2275,15 +2403,15 @@
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="69"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="16">
+      <c r="A19" s="63"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="70">
         <v>3051811</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="D19" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="70">
         <v>29</v>
       </c>
       <c r="F19" s="17"/>
@@ -2300,16 +2428,16 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
     </row>
-    <row r="20" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="70"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="16">
+    <row r="20" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="74">
         <v>3051811</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="16">
+      <c r="D20" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="74">
         <v>1</v>
       </c>
       <c r="F20" s="17"/>
@@ -2326,46 +2454,38 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
     </row>
-    <row r="21" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
+    <row r="21" spans="1:18" s="54" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21"/>
     </row>
     <row r="22" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="70">
+        <v>3052500</v>
+      </c>
+      <c r="D22" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="16">
-        <v>3052500</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="E22" s="70">
         <v>577</v>
       </c>
       <c r="F22" s="17"/>
@@ -2383,15 +2503,15 @@
       <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="69"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="16">
+      <c r="A23" s="63"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="70">
         <v>3052500</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="D23" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="70">
         <v>1</v>
       </c>
       <c r="F23" s="17"/>
@@ -2409,15 +2529,15 @@
       <c r="R23" s="12"/>
     </row>
     <row r="24" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="69"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="16">
+      <c r="A24" s="63"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="70">
         <v>3052500</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="16">
+      <c r="D24" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="70">
         <v>41</v>
       </c>
       <c r="F24" s="17"/>
@@ -2435,17 +2555,17 @@
       <c r="R24" s="12"/>
     </row>
     <row r="25" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="69"/>
-      <c r="B25" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="16">
+      <c r="A25" s="63"/>
+      <c r="B25" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="70">
         <v>3052501</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="16">
+      <c r="D25" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="70">
         <v>1153</v>
       </c>
       <c r="F25" s="17"/>
@@ -2463,15 +2583,15 @@
       <c r="R25" s="12"/>
     </row>
     <row r="26" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="69"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="16">
+      <c r="A26" s="63"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="70">
         <v>3052501</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="16">
+      <c r="D26" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="70">
         <v>1</v>
       </c>
       <c r="F26" s="17"/>
@@ -2488,16 +2608,16 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="70"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="16">
+    <row r="27" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="79"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="74">
         <v>3052501</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="16">
+      <c r="D27" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="74">
         <v>41</v>
       </c>
       <c r="F27" s="17"/>
@@ -2515,19 +2635,19 @@
       <c r="R27" s="12"/>
     </row>
     <row r="28" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="78">
+        <v>3052510</v>
+      </c>
+      <c r="D28" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="16">
-        <v>3052510</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="16">
+      <c r="E28" s="78">
         <v>577</v>
       </c>
       <c r="F28" s="17"/>
@@ -2545,15 +2665,15 @@
       <c r="R28" s="12"/>
     </row>
     <row r="29" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="69"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="16">
+      <c r="A29" s="63"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="70">
         <v>3052510</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="16">
+      <c r="D29" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="70">
         <v>1</v>
       </c>
       <c r="F29" s="17"/>
@@ -2571,15 +2691,15 @@
       <c r="R29" s="12"/>
     </row>
     <row r="30" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="69"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="16">
+      <c r="A30" s="63"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="70">
         <v>3052510</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="16">
+      <c r="D30" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="70">
         <v>41</v>
       </c>
       <c r="F30" s="17"/>
@@ -2597,17 +2717,17 @@
       <c r="R30" s="12"/>
     </row>
     <row r="31" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="69"/>
-      <c r="B31" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="16">
+      <c r="A31" s="63"/>
+      <c r="B31" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="70">
         <v>3052511</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="16">
+      <c r="D31" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="70">
         <v>1153</v>
       </c>
       <c r="F31" s="17"/>
@@ -2625,15 +2745,15 @@
       <c r="R31" s="12"/>
     </row>
     <row r="32" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="69"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="16">
+      <c r="A32" s="63"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="70">
         <v>3052511</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="16">
+      <c r="D32" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="70">
         <v>1</v>
       </c>
       <c r="F32" s="17"/>
@@ -2650,16 +2770,16 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
     </row>
-    <row r="33" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="70"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="16">
+    <row r="33" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="79"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="74">
         <v>3052511</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="16">
+      <c r="D33" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="74">
         <v>41</v>
       </c>
       <c r="F33" s="17"/>
@@ -2677,20 +2797,20 @@
       <c r="R33" s="12"/>
     </row>
     <row r="34" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="78">
         <v>3052600</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>34</v>
+      <c r="D34" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="78" t="s">
+        <v>29</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="16"/>
@@ -2707,18 +2827,18 @@
       <c r="R34" s="12"/>
     </row>
     <row r="35" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="64"/>
-      <c r="B35" s="52" t="s">
+      <c r="A35" s="61"/>
+      <c r="B35" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="70">
         <v>3052601</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>33</v>
+      <c r="D35" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="70" t="s">
+        <v>28</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="16"/>
@@ -2735,17 +2855,17 @@
       <c r="R35" s="12"/>
     </row>
     <row r="36" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="64"/>
-      <c r="B36" s="52" t="s">
+      <c r="A36" s="61"/>
+      <c r="B36" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="70">
         <v>3052602</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="16">
+      <c r="D36" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="70">
         <v>1023</v>
       </c>
       <c r="F36" s="17"/>
@@ -2763,17 +2883,17 @@
       <c r="R36" s="12"/>
     </row>
     <row r="37" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="64"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="16">
+        <v>60</v>
+      </c>
+      <c r="C37" s="70">
         <v>3052603</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="16">
+      <c r="D37" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="70">
         <v>5315</v>
       </c>
       <c r="F37" s="18"/>
@@ -2791,15 +2911,15 @@
       <c r="R37" s="12"/>
     </row>
     <row r="38" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="64"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="16">
+      <c r="A38" s="61"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="70">
         <v>3052603</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="16">
+      <c r="D38" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="70">
         <v>1</v>
       </c>
       <c r="F38" s="18"/>
@@ -2817,15 +2937,15 @@
       <c r="R38" s="12"/>
     </row>
     <row r="39" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="64"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="16">
+      <c r="A39" s="61"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="70">
         <v>3052603</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="16">
+      <c r="D39" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="70">
         <v>21</v>
       </c>
       <c r="F39" s="18"/>
@@ -2843,17 +2963,17 @@
       <c r="R39" s="12"/>
     </row>
     <row r="40" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="64"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="16">
+        <v>61</v>
+      </c>
+      <c r="C40" s="70">
         <v>3052604</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="16">
+      <c r="D40" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="70">
         <v>10633</v>
       </c>
       <c r="F40" s="18"/>
@@ -2871,15 +2991,15 @@
       <c r="R40" s="12"/>
     </row>
     <row r="41" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="64"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="16">
+      <c r="A41" s="61"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="70">
         <v>3052604</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="16">
+      <c r="D41" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="70">
         <v>2</v>
       </c>
       <c r="F41" s="18"/>
@@ -2897,15 +3017,15 @@
       <c r="R41" s="12"/>
     </row>
     <row r="42" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="64"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="16">
+      <c r="A42" s="61"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="70">
         <v>3052604</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="16">
+      <c r="D42" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="70">
         <v>10</v>
       </c>
       <c r="F42" s="18"/>
@@ -2923,17 +3043,17 @@
       <c r="R42" s="12"/>
     </row>
     <row r="43" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="64"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="16">
+        <v>62</v>
+      </c>
+      <c r="C43" s="70">
         <v>3052605</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="16">
+      <c r="D43" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="70">
         <v>6910</v>
       </c>
       <c r="F43" s="18"/>
@@ -2951,15 +3071,15 @@
       <c r="R43" s="12"/>
     </row>
     <row r="44" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="64"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="16">
+      <c r="A44" s="61"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="70">
         <v>3052605</v>
       </c>
-      <c r="D44" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="16">
+      <c r="D44" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="70">
         <v>2</v>
       </c>
       <c r="F44" s="18"/>
@@ -2977,15 +3097,15 @@
       <c r="R44" s="12"/>
     </row>
     <row r="45" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="64"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="16">
+      <c r="A45" s="61"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="70">
         <v>3052605</v>
       </c>
-      <c r="D45" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="16">
+      <c r="D45" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="70">
         <v>10</v>
       </c>
       <c r="F45" s="18"/>
@@ -3003,17 +3123,17 @@
       <c r="R45" s="12"/>
     </row>
     <row r="46" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="64"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="16">
+        <v>63</v>
+      </c>
+      <c r="C46" s="70">
         <v>3052606</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="16">
+      <c r="D46" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="70">
         <v>6377</v>
       </c>
       <c r="F46" s="18"/>
@@ -3031,15 +3151,15 @@
       <c r="R46" s="12"/>
     </row>
     <row r="47" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="64"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="16">
+      <c r="A47" s="61"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="70">
         <v>3052606</v>
       </c>
-      <c r="D47" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="16">
+      <c r="D47" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="70">
         <v>2</v>
       </c>
       <c r="F47" s="18"/>
@@ -3057,15 +3177,15 @@
       <c r="R47" s="12"/>
     </row>
     <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="64"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="16">
+      <c r="A48" s="61"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="70">
         <v>3052606</v>
       </c>
-      <c r="D48" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="16">
+      <c r="D48" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="70">
         <v>10</v>
       </c>
       <c r="F48" s="18"/>
@@ -3083,17 +3203,17 @@
       <c r="R48" s="12"/>
     </row>
     <row r="49" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="64"/>
-      <c r="B49" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="16">
+      <c r="A49" s="61"/>
+      <c r="B49" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="70">
         <v>3052607</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="70" t="s">
         <v>0</v>
       </c>
       <c r="F49" s="17"/>
@@ -3110,18 +3230,18 @@
       <c r="Q49" s="12"/>
       <c r="R49" s="12"/>
     </row>
-    <row r="50" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="65"/>
-      <c r="B50" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="16">
+    <row r="50" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="86"/>
+      <c r="B50" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="74">
         <v>3052608</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="74" t="s">
         <v>0</v>
       </c>
       <c r="F50" s="18"/>
@@ -3139,19 +3259,19 @@
       <c r="R50" s="12"/>
     </row>
     <row r="51" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="63" t="s">
+      <c r="A51" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="78">
         <v>3052700</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="78" t="s">
         <v>0</v>
       </c>
       <c r="F51" s="17"/>
@@ -3169,17 +3289,17 @@
       <c r="R51" s="12"/>
     </row>
     <row r="52" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="64"/>
-      <c r="B52" s="52" t="s">
+      <c r="A52" s="61"/>
+      <c r="B52" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="70">
         <v>3052701</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="70" t="s">
         <v>0</v>
       </c>
       <c r="F52" s="17"/>
@@ -3197,17 +3317,17 @@
       <c r="R52" s="11"/>
     </row>
     <row r="53" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="64"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="16">
+        <v>64</v>
+      </c>
+      <c r="C53" s="70">
         <v>3052702</v>
       </c>
-      <c r="D53" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="16">
+      <c r="D53" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="70">
         <v>2785</v>
       </c>
       <c r="F53" s="16"/>
@@ -3225,15 +3345,15 @@
       <c r="R53" s="12"/>
     </row>
     <row r="54" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="64"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="16">
+      <c r="A54" s="61"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="70">
         <v>3052702</v>
       </c>
-      <c r="D54" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="16">
+      <c r="D54" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="70">
         <v>2</v>
       </c>
       <c r="F54" s="16"/>
@@ -3251,15 +3371,15 @@
       <c r="R54" s="12"/>
     </row>
     <row r="55" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="64"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="16">
+      <c r="A55" s="61"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="70">
         <v>3052702</v>
       </c>
-      <c r="D55" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E55" s="16">
+      <c r="D55" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="70">
         <v>5</v>
       </c>
       <c r="F55" s="16"/>
@@ -3277,17 +3397,17 @@
       <c r="R55" s="12"/>
     </row>
     <row r="56" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="64"/>
-      <c r="B56" s="52" t="s">
+      <c r="A56" s="61"/>
+      <c r="B56" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="70">
         <v>3052703</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="70" t="s">
         <v>0</v>
       </c>
       <c r="F56" s="17"/>
@@ -3305,17 +3425,17 @@
       <c r="R56" s="12"/>
     </row>
     <row r="57" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="64"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="16">
+        <v>65</v>
+      </c>
+      <c r="C57" s="70">
         <v>3052704</v>
       </c>
-      <c r="D57" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E57" s="16">
+      <c r="D57" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="70">
         <v>4453</v>
       </c>
       <c r="F57" s="16"/>
@@ -3333,15 +3453,15 @@
       <c r="R57" s="12"/>
     </row>
     <row r="58" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="64"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="16">
+      <c r="A58" s="61"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="70">
         <v>3052704</v>
       </c>
-      <c r="D58" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E58" s="16">
+      <c r="D58" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="70">
         <v>5</v>
       </c>
       <c r="F58" s="16"/>
@@ -3359,15 +3479,15 @@
       <c r="R58" s="12"/>
     </row>
     <row r="59" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="64"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="16">
+      <c r="A59" s="61"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="70">
         <v>3052704</v>
       </c>
-      <c r="D59" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59" s="16">
+      <c r="D59" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="70">
         <v>5</v>
       </c>
       <c r="F59" s="16"/>
@@ -3385,17 +3505,17 @@
       <c r="R59" s="12"/>
     </row>
     <row r="60" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="64"/>
+      <c r="A60" s="61"/>
       <c r="B60" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="16">
+        <v>66</v>
+      </c>
+      <c r="C60" s="70">
         <v>3052705</v>
       </c>
-      <c r="D60" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E60" s="16">
+      <c r="D60" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="70">
         <v>2785</v>
       </c>
       <c r="F60" s="16"/>
@@ -3413,15 +3533,15 @@
       <c r="R60" s="12"/>
     </row>
     <row r="61" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="64"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="16">
+      <c r="A61" s="61"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="70">
         <v>3052705</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E61" s="16">
+      <c r="D61" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="70">
         <v>8</v>
       </c>
       <c r="F61" s="16"/>
@@ -3439,15 +3559,15 @@
       <c r="R61" s="12"/>
     </row>
     <row r="62" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="64"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="16">
+      <c r="A62" s="61"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="70">
         <v>3052705</v>
       </c>
-      <c r="D62" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="16">
+      <c r="D62" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="70">
         <v>5</v>
       </c>
       <c r="F62" s="16"/>
@@ -3465,81 +3585,81 @@
       <c r="R62" s="12"/>
     </row>
     <row r="63" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="64"/>
+      <c r="A63" s="61"/>
       <c r="B63" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="16">
+        <v>67</v>
+      </c>
+      <c r="C63" s="70">
         <v>3052706</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63" s="16">
+      <c r="D63" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="70">
         <v>5571</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
     </row>
     <row r="64" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="64"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="16">
+      <c r="A64" s="61"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="70">
         <v>3052706</v>
       </c>
-      <c r="D64" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E64" s="16">
+      <c r="D64" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="70">
         <v>1</v>
       </c>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
     </row>
     <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="64"/>
-      <c r="B65" s="62"/>
-      <c r="C65" s="16">
+      <c r="A65" s="61"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="70">
         <v>3052706</v>
       </c>
-      <c r="D65" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E65" s="16">
+      <c r="D65" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="70">
         <v>5</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="64"/>
-      <c r="B66" s="52" t="s">
+      <c r="A66" s="61"/>
+      <c r="B66" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="70">
         <v>3052707</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="70" t="s">
         <v>0</v>
       </c>
       <c r="F66" s="17"/>
       <c r="G66" s="16"/>
     </row>
-    <row r="67" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="65"/>
-      <c r="B67" s="52" t="s">
+    <row r="67" spans="1:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="86"/>
+      <c r="B67" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="74">
         <v>3052708</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="74" t="s">
         <v>0</v>
       </c>
       <c r="F67" s="17"/>
@@ -3587,10 +3707,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B24"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="B28:B30"/>
@@ -3604,6 +3720,10 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="A34:A50"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B40:B42"/>

--- a/로스트아크/데이터테이블/SkillEffect_Parameter_Table(데이터 추가).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Parameter_Table(데이터 추가).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BFFC67-1987-45C6-ACA1-62FADCBA9904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752B24E0-AC79-4102-904E-05BEE8AB2B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="3324" windowWidth="17280" windowHeight="8880" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,32 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">매개 변수의 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>인자 값</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//스킬 &amp; 효과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,23 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">스킬 효과 ID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(SkillEffect_Table.xlsx의 id)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hit_cnt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,41 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve"> * 스킬 효과의 매개 변수 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과를 구성하는 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>매개 변수</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">복합 PK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(스킬 효과 ID, 스킬 효과 매개 변수)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -471,6 +393,87 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>weak_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매개 변수의 인자 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과를 구성하는 매개 변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">복합 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (스킬 효과 ID, 스킬 효과 매개 변수)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스킬 효과 ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SkillEffect_Table.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 PK)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -481,7 +484,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,6 +606,15 @@
     <font>
       <sz val="8"/>
       <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1091,7 +1103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1200,9 +1212,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1215,9 +1224,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1226,9 +1232,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1263,6 +1266,27 @@
     <xf numFmtId="177" fontId="13" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1271,90 +1295,66 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1682,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:F35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1699,13 +1699,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
+      <c r="C2" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>0</v>
@@ -1745,66 +1745,66 @@
         <v>0</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>46</v>
+      <c r="F5" s="83" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <f t="shared" ref="C6:C8" si="0">ROW(C6)-5</f>
         <v>1</v>
       </c>
-      <c r="D6" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>39</v>
+      <c r="F6" s="82" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C7" s="42">
+      <c r="C7" s="40">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D7" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="44" t="s">
+      <c r="D7" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>45</v>
+      <c r="F7" s="43" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C8" s="42">
+      <c r="C8" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D8" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45" t="s">
-        <v>34</v>
+      <c r="D8" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C11" s="12"/>
@@ -1895,9 +1895,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1917,20 +1917,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="48" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1947,19 +1947,19 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="70">
+      <c r="B2" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="16">
         <v>3050000</v>
       </c>
-      <c r="D2" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="70">
+      <c r="D2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="16">
         <v>50</v>
       </c>
       <c r="F2" s="19"/>
@@ -1977,15 +1977,15 @@
       <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="67"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70">
+      <c r="A3" s="71"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="16">
         <v>3050000</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="70">
+      <c r="D3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="16">
         <v>3</v>
       </c>
       <c r="F3" s="19"/>
@@ -2003,17 +2003,17 @@
       <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="67"/>
-      <c r="B4" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="70">
+      <c r="A4" s="71"/>
+      <c r="B4" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="16">
         <v>3050001</v>
       </c>
-      <c r="D4" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="70">
+      <c r="D4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="16">
         <v>80</v>
       </c>
       <c r="F4" s="19"/>
@@ -2032,14 +2032,14 @@
     </row>
     <row r="5" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74">
+      <c r="B5" s="77"/>
+      <c r="C5" s="54">
         <v>3050001</v>
       </c>
-      <c r="D5" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="74">
+      <c r="D5" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="54">
         <v>1</v>
       </c>
       <c r="F5" s="19"/>
@@ -2057,19 +2057,19 @@
       <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="78">
+      <c r="B6" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="56">
         <v>3050010</v>
       </c>
-      <c r="D6" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="78">
+      <c r="D6" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="56">
         <v>30</v>
       </c>
       <c r="F6" s="19"/>
@@ -2087,15 +2087,15 @@
       <c r="R6" s="12"/>
     </row>
     <row r="7" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="74">
+      <c r="A7" s="68"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="54">
         <v>3050010</v>
       </c>
-      <c r="D7" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="74">
+      <c r="D7" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="54">
         <v>1</v>
       </c>
       <c r="F7" s="19"/>
@@ -2112,38 +2112,38 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="1:18" s="54" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:18" s="51" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="50" t="s">
         <v>27</v>
       </c>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="16">
         <v>3051800</v>
       </c>
-      <c r="D9" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="70">
+      <c r="D9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="16">
         <v>2</v>
       </c>
       <c r="F9" s="19"/>
@@ -2161,15 +2161,15 @@
       <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="63"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="70">
+      <c r="A10" s="67"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="16">
         <v>3051800</v>
       </c>
-      <c r="D10" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="70">
+      <c r="D10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="16">
         <v>6</v>
       </c>
       <c r="F10" s="19"/>
@@ -2187,17 +2187,17 @@
       <c r="R10" s="12"/>
     </row>
     <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="63"/>
-      <c r="B11" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="70">
+      <c r="A11" s="67"/>
+      <c r="B11" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="16">
         <v>3051801</v>
       </c>
-      <c r="D11" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="70">
+      <c r="D11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="16">
         <v>727</v>
       </c>
       <c r="F11" s="17"/>
@@ -2215,15 +2215,15 @@
       <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="63"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="70">
+      <c r="A12" s="67"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="16">
         <v>3051801</v>
       </c>
-      <c r="D12" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="70">
+      <c r="D12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="16">
         <v>1</v>
       </c>
       <c r="F12" s="17"/>
@@ -2241,15 +2241,15 @@
       <c r="R12" s="12"/>
     </row>
     <row r="13" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="63"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="70">
+      <c r="A13" s="67"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="16">
         <v>3051801</v>
       </c>
-      <c r="D13" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="70">
+      <c r="D13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="16">
         <v>29</v>
       </c>
       <c r="F13" s="17"/>
@@ -2267,15 +2267,15 @@
       <c r="R13" s="12"/>
     </row>
     <row r="14" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="79"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="74">
+      <c r="A14" s="68"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="54">
         <v>3051801</v>
       </c>
-      <c r="D14" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="74">
+      <c r="D14" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="54">
         <v>1</v>
       </c>
       <c r="F14" s="17"/>
@@ -2293,19 +2293,19 @@
       <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="56">
         <v>3051810</v>
       </c>
-      <c r="D15" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="78">
+      <c r="D15" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="56">
         <v>2</v>
       </c>
       <c r="F15" s="17"/>
@@ -2323,15 +2323,15 @@
       <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="63"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="70">
+      <c r="A16" s="67"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="16">
         <v>3051810</v>
       </c>
-      <c r="D16" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="70">
+      <c r="D16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="16">
         <v>6</v>
       </c>
       <c r="F16" s="17"/>
@@ -2349,17 +2349,17 @@
       <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="63"/>
-      <c r="B17" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="70">
+      <c r="A17" s="67"/>
+      <c r="B17" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="16">
         <v>3051811</v>
       </c>
-      <c r="D17" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="70">
+      <c r="D17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="16">
         <v>727</v>
       </c>
       <c r="F17" s="17"/>
@@ -2377,15 +2377,15 @@
       <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="63"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="70">
+      <c r="A18" s="67"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="16">
         <v>3051811</v>
       </c>
-      <c r="D18" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="70">
+      <c r="D18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="16">
         <v>1</v>
       </c>
       <c r="F18" s="17"/>
@@ -2403,15 +2403,15 @@
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="63"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="70">
+      <c r="A19" s="67"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="16">
         <v>3051811</v>
       </c>
-      <c r="D19" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="70">
+      <c r="D19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="16">
         <v>29</v>
       </c>
       <c r="F19" s="17"/>
@@ -2429,15 +2429,15 @@
       <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="79"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="74">
+      <c r="A20" s="68"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="54">
         <v>3051811</v>
       </c>
-      <c r="D20" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="74">
+      <c r="D20" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="54">
         <v>1</v>
       </c>
       <c r="F20" s="17"/>
@@ -2454,38 +2454,38 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
     </row>
-    <row r="21" spans="1:18" s="54" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="55" t="s">
+    <row r="21" spans="1:18" s="51" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="50" t="s">
         <v>27</v>
       </c>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="70">
+      <c r="B22" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="16">
         <v>3052500</v>
       </c>
-      <c r="D22" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="70">
+      <c r="D22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="16">
         <v>577</v>
       </c>
       <c r="F22" s="17"/>
@@ -2503,15 +2503,15 @@
       <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="63"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="70">
+      <c r="A23" s="67"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="16">
         <v>3052500</v>
       </c>
-      <c r="D23" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="70">
+      <c r="D23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="16">
         <v>1</v>
       </c>
       <c r="F23" s="17"/>
@@ -2529,15 +2529,15 @@
       <c r="R23" s="12"/>
     </row>
     <row r="24" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="63"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="70">
+      <c r="A24" s="67"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="16">
         <v>3052500</v>
       </c>
-      <c r="D24" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="70">
+      <c r="D24" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="16">
         <v>41</v>
       </c>
       <c r="F24" s="17"/>
@@ -2555,17 +2555,17 @@
       <c r="R24" s="12"/>
     </row>
     <row r="25" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="63"/>
-      <c r="B25" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="70">
+      <c r="A25" s="67"/>
+      <c r="B25" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="16">
         <v>3052501</v>
       </c>
-      <c r="D25" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="70">
+      <c r="D25" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="16">
         <v>1153</v>
       </c>
       <c r="F25" s="17"/>
@@ -2583,15 +2583,15 @@
       <c r="R25" s="12"/>
     </row>
     <row r="26" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="63"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="70">
+      <c r="A26" s="67"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="16">
         <v>3052501</v>
       </c>
-      <c r="D26" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="70">
+      <c r="D26" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="16">
         <v>1</v>
       </c>
       <c r="F26" s="17"/>
@@ -2609,15 +2609,15 @@
       <c r="R26" s="12"/>
     </row>
     <row r="27" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="79"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="74">
+      <c r="A27" s="68"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="54">
         <v>3052501</v>
       </c>
-      <c r="D27" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="74">
+      <c r="D27" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="54">
         <v>41</v>
       </c>
       <c r="F27" s="17"/>
@@ -2635,19 +2635,19 @@
       <c r="R27" s="12"/>
     </row>
     <row r="28" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="78">
+      <c r="B28" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="56">
         <v>3052510</v>
       </c>
-      <c r="D28" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="78">
+      <c r="D28" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="56">
         <v>577</v>
       </c>
       <c r="F28" s="17"/>
@@ -2665,15 +2665,15 @@
       <c r="R28" s="12"/>
     </row>
     <row r="29" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="63"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="70">
+      <c r="A29" s="67"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="16">
         <v>3052510</v>
       </c>
-      <c r="D29" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="70">
+      <c r="D29" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="16">
         <v>1</v>
       </c>
       <c r="F29" s="17"/>
@@ -2691,15 +2691,15 @@
       <c r="R29" s="12"/>
     </row>
     <row r="30" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="63"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="70">
+      <c r="A30" s="67"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="16">
         <v>3052510</v>
       </c>
-      <c r="D30" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="70">
+      <c r="D30" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="16">
         <v>41</v>
       </c>
       <c r="F30" s="17"/>
@@ -2717,17 +2717,17 @@
       <c r="R30" s="12"/>
     </row>
     <row r="31" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="63"/>
-      <c r="B31" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="70">
+      <c r="A31" s="67"/>
+      <c r="B31" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="16">
         <v>3052511</v>
       </c>
-      <c r="D31" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="70">
+      <c r="D31" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="16">
         <v>1153</v>
       </c>
       <c r="F31" s="17"/>
@@ -2745,15 +2745,15 @@
       <c r="R31" s="12"/>
     </row>
     <row r="32" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="63"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="70">
+      <c r="A32" s="67"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="16">
         <v>3052511</v>
       </c>
-      <c r="D32" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="70">
+      <c r="D32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="16">
         <v>1</v>
       </c>
       <c r="F32" s="17"/>
@@ -2771,15 +2771,15 @@
       <c r="R32" s="12"/>
     </row>
     <row r="33" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="79"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="74">
+      <c r="A33" s="68"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="54">
         <v>3052511</v>
       </c>
-      <c r="D33" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="74">
+      <c r="D33" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="54">
         <v>41</v>
       </c>
       <c r="F33" s="17"/>
@@ -2797,19 +2797,19 @@
       <c r="R33" s="12"/>
     </row>
     <row r="34" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="85" t="s">
+      <c r="B34" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="78">
+      <c r="C34" s="56">
         <v>3052600</v>
       </c>
-      <c r="D34" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="78" t="s">
+      <c r="D34" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="56" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="17"/>
@@ -2827,17 +2827,17 @@
       <c r="R34" s="12"/>
     </row>
     <row r="35" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="61"/>
-      <c r="B35" s="56" t="s">
+      <c r="A35" s="79"/>
+      <c r="B35" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="70">
+      <c r="C35" s="16">
         <v>3052601</v>
       </c>
-      <c r="D35" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="70" t="s">
+      <c r="D35" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="17"/>
@@ -2855,17 +2855,17 @@
       <c r="R35" s="12"/>
     </row>
     <row r="36" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="61"/>
-      <c r="B36" s="56" t="s">
+      <c r="A36" s="79"/>
+      <c r="B36" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="70">
+      <c r="C36" s="16">
         <v>3052602</v>
       </c>
-      <c r="D36" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="70">
+      <c r="D36" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="16">
         <v>1023</v>
       </c>
       <c r="F36" s="17"/>
@@ -2883,17 +2883,17 @@
       <c r="R36" s="12"/>
     </row>
     <row r="37" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="61"/>
-      <c r="B37" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="70">
+      <c r="A37" s="79"/>
+      <c r="B37" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="16">
         <v>3052603</v>
       </c>
-      <c r="D37" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="70">
+      <c r="D37" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="16">
         <v>5315</v>
       </c>
       <c r="F37" s="18"/>
@@ -2911,15 +2911,15 @@
       <c r="R37" s="12"/>
     </row>
     <row r="38" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="61"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="70">
+      <c r="A38" s="79"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="16">
         <v>3052603</v>
       </c>
-      <c r="D38" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="70">
+      <c r="D38" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="16">
         <v>1</v>
       </c>
       <c r="F38" s="18"/>
@@ -2937,15 +2937,15 @@
       <c r="R38" s="12"/>
     </row>
     <row r="39" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="61"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="70">
+      <c r="A39" s="79"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="16">
         <v>3052603</v>
       </c>
-      <c r="D39" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="70">
+      <c r="D39" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="16">
         <v>21</v>
       </c>
       <c r="F39" s="18"/>
@@ -2963,17 +2963,17 @@
       <c r="R39" s="12"/>
     </row>
     <row r="40" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="61"/>
-      <c r="B40" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="70">
+      <c r="A40" s="79"/>
+      <c r="B40" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="16">
         <v>3052604</v>
       </c>
-      <c r="D40" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="70">
+      <c r="D40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="16">
         <v>10633</v>
       </c>
       <c r="F40" s="18"/>
@@ -2991,15 +2991,15 @@
       <c r="R40" s="12"/>
     </row>
     <row r="41" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="61"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="70">
+      <c r="A41" s="79"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="16">
         <v>3052604</v>
       </c>
-      <c r="D41" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="70">
+      <c r="D41" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="16">
         <v>2</v>
       </c>
       <c r="F41" s="18"/>
@@ -3017,15 +3017,15 @@
       <c r="R41" s="12"/>
     </row>
     <row r="42" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="61"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="70">
+      <c r="A42" s="79"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="16">
         <v>3052604</v>
       </c>
-      <c r="D42" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="70">
+      <c r="D42" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="16">
         <v>10</v>
       </c>
       <c r="F42" s="18"/>
@@ -3043,17 +3043,17 @@
       <c r="R42" s="12"/>
     </row>
     <row r="43" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="61"/>
-      <c r="B43" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="70">
+      <c r="A43" s="79"/>
+      <c r="B43" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="16">
         <v>3052605</v>
       </c>
-      <c r="D43" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="70">
+      <c r="D43" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="16">
         <v>6910</v>
       </c>
       <c r="F43" s="18"/>
@@ -3071,15 +3071,15 @@
       <c r="R43" s="12"/>
     </row>
     <row r="44" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="61"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="70">
+      <c r="A44" s="79"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="16">
         <v>3052605</v>
       </c>
-      <c r="D44" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="70">
+      <c r="D44" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="16">
         <v>2</v>
       </c>
       <c r="F44" s="18"/>
@@ -3097,15 +3097,15 @@
       <c r="R44" s="12"/>
     </row>
     <row r="45" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="61"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="70">
+      <c r="A45" s="79"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="16">
         <v>3052605</v>
       </c>
-      <c r="D45" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="70">
+      <c r="D45" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="16">
         <v>10</v>
       </c>
       <c r="F45" s="18"/>
@@ -3123,17 +3123,17 @@
       <c r="R45" s="12"/>
     </row>
     <row r="46" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="61"/>
-      <c r="B46" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="70">
+      <c r="A46" s="79"/>
+      <c r="B46" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="16">
         <v>3052606</v>
       </c>
-      <c r="D46" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="70">
+      <c r="D46" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="16">
         <v>6377</v>
       </c>
       <c r="F46" s="18"/>
@@ -3151,15 +3151,15 @@
       <c r="R46" s="12"/>
     </row>
     <row r="47" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="61"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="70">
+      <c r="A47" s="79"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="16">
         <v>3052606</v>
       </c>
-      <c r="D47" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="70">
+      <c r="D47" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="16">
         <v>2</v>
       </c>
       <c r="F47" s="18"/>
@@ -3177,15 +3177,15 @@
       <c r="R47" s="12"/>
     </row>
     <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="61"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="70">
+      <c r="A48" s="79"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="16">
         <v>3052606</v>
       </c>
-      <c r="D48" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" s="70">
+      <c r="D48" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="16">
         <v>10</v>
       </c>
       <c r="F48" s="18"/>
@@ -3203,17 +3203,17 @@
       <c r="R48" s="12"/>
     </row>
     <row r="49" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="61"/>
-      <c r="B49" s="56" t="s">
+      <c r="A49" s="79"/>
+      <c r="B49" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="70">
+      <c r="C49" s="16">
         <v>3052607</v>
       </c>
-      <c r="D49" s="81" t="s">
+      <c r="D49" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E49" s="70" t="s">
+      <c r="E49" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F49" s="17"/>
@@ -3231,17 +3231,17 @@
       <c r="R49" s="12"/>
     </row>
     <row r="50" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="86"/>
-      <c r="B50" s="87" t="s">
+      <c r="A50" s="80"/>
+      <c r="B50" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="74">
+      <c r="C50" s="54">
         <v>3052608</v>
       </c>
-      <c r="D50" s="75" t="s">
+      <c r="D50" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="74" t="s">
+      <c r="E50" s="54" t="s">
         <v>0</v>
       </c>
       <c r="F50" s="18"/>
@@ -3259,19 +3259,19 @@
       <c r="R50" s="12"/>
     </row>
     <row r="51" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="84" t="s">
+      <c r="A51" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="78">
+      <c r="C51" s="56">
         <v>3052700</v>
       </c>
-      <c r="D51" s="83" t="s">
+      <c r="D51" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E51" s="78" t="s">
+      <c r="E51" s="56" t="s">
         <v>0</v>
       </c>
       <c r="F51" s="17"/>
@@ -3289,17 +3289,17 @@
       <c r="R51" s="12"/>
     </row>
     <row r="52" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="61"/>
-      <c r="B52" s="56" t="s">
+      <c r="A52" s="79"/>
+      <c r="B52" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="70">
+      <c r="C52" s="16">
         <v>3052701</v>
       </c>
-      <c r="D52" s="81" t="s">
+      <c r="D52" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E52" s="70" t="s">
+      <c r="E52" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F52" s="17"/>
@@ -3317,17 +3317,17 @@
       <c r="R52" s="11"/>
     </row>
     <row r="53" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="61"/>
-      <c r="B53" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="70">
+      <c r="A53" s="79"/>
+      <c r="B53" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="16">
         <v>3052702</v>
       </c>
-      <c r="D53" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="70">
+      <c r="D53" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="16">
         <v>2785</v>
       </c>
       <c r="F53" s="16"/>
@@ -3345,15 +3345,15 @@
       <c r="R53" s="12"/>
     </row>
     <row r="54" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="61"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="70">
+      <c r="A54" s="79"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="16">
         <v>3052702</v>
       </c>
-      <c r="D54" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="70">
+      <c r="D54" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="16">
         <v>2</v>
       </c>
       <c r="F54" s="16"/>
@@ -3371,15 +3371,15 @@
       <c r="R54" s="12"/>
     </row>
     <row r="55" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="61"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="70">
+      <c r="A55" s="79"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="16">
         <v>3052702</v>
       </c>
-      <c r="D55" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="70">
+      <c r="D55" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="16">
         <v>5</v>
       </c>
       <c r="F55" s="16"/>
@@ -3397,17 +3397,17 @@
       <c r="R55" s="12"/>
     </row>
     <row r="56" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="61"/>
-      <c r="B56" s="56" t="s">
+      <c r="A56" s="79"/>
+      <c r="B56" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="70">
+      <c r="C56" s="16">
         <v>3052703</v>
       </c>
-      <c r="D56" s="81" t="s">
+      <c r="D56" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E56" s="70" t="s">
+      <c r="E56" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F56" s="17"/>
@@ -3425,17 +3425,17 @@
       <c r="R56" s="12"/>
     </row>
     <row r="57" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="61"/>
-      <c r="B57" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="70">
+      <c r="A57" s="79"/>
+      <c r="B57" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="16">
         <v>3052704</v>
       </c>
-      <c r="D57" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57" s="70">
+      <c r="D57" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="16">
         <v>4453</v>
       </c>
       <c r="F57" s="16"/>
@@ -3453,15 +3453,15 @@
       <c r="R57" s="12"/>
     </row>
     <row r="58" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="61"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="70">
+      <c r="A58" s="79"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="16">
         <v>3052704</v>
       </c>
-      <c r="D58" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="E58" s="70">
+      <c r="D58" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="16">
         <v>5</v>
       </c>
       <c r="F58" s="16"/>
@@ -3479,15 +3479,15 @@
       <c r="R58" s="12"/>
     </row>
     <row r="59" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="61"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="70">
+      <c r="A59" s="79"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="16">
         <v>3052704</v>
       </c>
-      <c r="D59" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="E59" s="70">
+      <c r="D59" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="16">
         <v>5</v>
       </c>
       <c r="F59" s="16"/>
@@ -3505,17 +3505,17 @@
       <c r="R59" s="12"/>
     </row>
     <row r="60" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="61"/>
-      <c r="B60" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="70">
+      <c r="A60" s="79"/>
+      <c r="B60" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="16">
         <v>3052705</v>
       </c>
-      <c r="D60" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="70">
+      <c r="D60" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="16">
         <v>2785</v>
       </c>
       <c r="F60" s="16"/>
@@ -3533,15 +3533,15 @@
       <c r="R60" s="12"/>
     </row>
     <row r="61" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="61"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="70">
+      <c r="A61" s="79"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="16">
         <v>3052705</v>
       </c>
-      <c r="D61" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="E61" s="70">
+      <c r="D61" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="16">
         <v>8</v>
       </c>
       <c r="F61" s="16"/>
@@ -3559,15 +3559,15 @@
       <c r="R61" s="12"/>
     </row>
     <row r="62" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="61"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="70">
+      <c r="A62" s="79"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="16">
         <v>3052705</v>
       </c>
-      <c r="D62" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62" s="70">
+      <c r="D62" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="16">
         <v>5</v>
       </c>
       <c r="F62" s="16"/>
@@ -3585,81 +3585,81 @@
       <c r="R62" s="12"/>
     </row>
     <row r="63" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="61"/>
-      <c r="B63" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="70">
+      <c r="A63" s="79"/>
+      <c r="B63" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="16">
         <v>3052706</v>
       </c>
-      <c r="D63" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" s="70">
+      <c r="D63" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="16">
         <v>5571</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
     </row>
     <row r="64" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="61"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="70">
+      <c r="A64" s="79"/>
+      <c r="B64" s="81"/>
+      <c r="C64" s="16">
         <v>3052706</v>
       </c>
-      <c r="D64" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="E64" s="70">
+      <c r="D64" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="16">
         <v>1</v>
       </c>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
     </row>
     <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="61"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="70">
+      <c r="A65" s="79"/>
+      <c r="B65" s="81"/>
+      <c r="C65" s="16">
         <v>3052706</v>
       </c>
-      <c r="D65" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="E65" s="70">
+      <c r="D65" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="16">
         <v>5</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="61"/>
-      <c r="B66" s="56" t="s">
+      <c r="A66" s="79"/>
+      <c r="B66" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="70">
+      <c r="C66" s="16">
         <v>3052707</v>
       </c>
-      <c r="D66" s="81" t="s">
+      <c r="D66" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="70" t="s">
+      <c r="E66" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F66" s="17"/>
       <c r="G66" s="16"/>
     </row>
     <row r="67" spans="1:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="86"/>
-      <c r="B67" s="87" t="s">
+      <c r="A67" s="80"/>
+      <c r="B67" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="74">
+      <c r="C67" s="54">
         <v>3052708</v>
       </c>
-      <c r="D67" s="82" t="s">
+      <c r="D67" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="74" t="s">
+      <c r="E67" s="54" t="s">
         <v>0</v>
       </c>
       <c r="F67" s="17"/>
@@ -3707,6 +3707,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A51:A67"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A34:A50"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="B28:B30"/>
@@ -3723,17 +3734,6 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A34:A50"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A51:A67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/로스트아크/데이터테이블/SkillEffect_Parameter_Table(데이터 추가).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Parameter_Table(데이터 추가).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752B24E0-AC79-4102-904E-05BEE8AB2B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA6C709-1CF7-4A30-A94D-D8ABD5F7EEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="72">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,6 +472,18 @@
       </rPr>
       <t>의 PK)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_reaction_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>palaysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +633,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,18 +690,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -975,41 +981,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
@@ -1035,30 +1011,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="0" tint="-0.14999847407452621"/>
       </left>
@@ -1074,12 +1026,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </left>
-      <right style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
       <top style="medium">
         <color theme="1"/>
       </top>
@@ -1089,12 +1091,38 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
       <right/>
       <top style="medium">
-        <color theme="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1103,7 +1131,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1254,107 +1282,122 @@
     <xf numFmtId="177" fontId="10" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="177" fontId="13" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1682,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1699,11 +1742,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
@@ -1750,7 +1793,7 @@
       <c r="E5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="51" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1768,7 +1811,7 @@
       <c r="E6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="50" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1895,9 +1938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1947,10 +1990,10 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="88" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="16">
@@ -1977,8 +2020,8 @@
       <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="71"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="16">
         <v>3050000</v>
       </c>
@@ -2003,17 +2046,17 @@
       <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="71"/>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="65">
         <v>3050001</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="65">
         <v>80</v>
       </c>
       <c r="F4" s="19"/>
@@ -2031,15 +2074,15 @@
       <c r="R4" s="12"/>
     </row>
     <row r="5" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="72"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="54">
+      <c r="A5" s="63"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="65">
         <v>3050001</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="65">
         <v>1</v>
       </c>
       <c r="F5" s="19"/>
@@ -2057,19 +2100,19 @@
       <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="65">
         <v>3050010</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="65">
         <v>30</v>
       </c>
       <c r="F6" s="19"/>
@@ -2086,16 +2129,16 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="68"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="54">
+      <c r="B7" s="73"/>
+      <c r="C7" s="65">
         <v>3050010</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="65">
         <v>1</v>
       </c>
       <c r="F7" s="19"/>
@@ -2112,38 +2155,38 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="1:18" s="51" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="52" t="s">
+    <row r="8" spans="1:18" s="86" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="F8"/>
+      <c r="F8" s="85"/>
     </row>
     <row r="9" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="69" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="65">
         <v>3051800</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="65">
         <v>2</v>
       </c>
       <c r="F9" s="19"/>
@@ -2161,15 +2204,15 @@
       <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="67"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="16">
+      <c r="A10" s="59"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="65">
         <v>3051800</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="65">
         <v>6</v>
       </c>
       <c r="F10" s="19"/>
@@ -2187,17 +2230,17 @@
       <c r="R10" s="12"/>
     </row>
     <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="67"/>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="65">
         <v>3051801</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="65">
         <v>727</v>
       </c>
       <c r="F11" s="17"/>
@@ -2215,15 +2258,15 @@
       <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="67"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="16">
+      <c r="A12" s="59"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="65">
         <v>3051801</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="65">
         <v>1</v>
       </c>
       <c r="F12" s="17"/>
@@ -2241,15 +2284,15 @@
       <c r="R12" s="12"/>
     </row>
     <row r="13" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="67"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="16">
+      <c r="A13" s="59"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="65">
         <v>3051801</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="65">
         <v>29</v>
       </c>
       <c r="F13" s="17"/>
@@ -2267,15 +2310,15 @@
       <c r="R13" s="12"/>
     </row>
     <row r="14" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="68"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="54">
+      <c r="A14" s="60"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="65">
         <v>3051801</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="65">
         <v>1</v>
       </c>
       <c r="F14" s="17"/>
@@ -2293,19 +2336,19 @@
       <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="65">
         <v>3051810</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="56">
+      <c r="E15" s="65">
         <v>2</v>
       </c>
       <c r="F15" s="17"/>
@@ -2323,15 +2366,15 @@
       <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="67"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="16">
+      <c r="A16" s="59"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="65">
         <v>3051810</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="65">
         <v>6</v>
       </c>
       <c r="F16" s="17"/>
@@ -2349,17 +2392,17 @@
       <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="67"/>
-      <c r="B17" s="64" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="65">
         <v>3051811</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="65">
         <v>727</v>
       </c>
       <c r="F17" s="17"/>
@@ -2377,15 +2420,15 @@
       <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="67"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="16">
+      <c r="A18" s="59"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="65">
         <v>3051811</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="65">
         <v>1</v>
       </c>
       <c r="F18" s="17"/>
@@ -2403,15 +2446,15 @@
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="67"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="16">
+      <c r="A19" s="59"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="65">
         <v>3051811</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="65">
         <v>29</v>
       </c>
       <c r="F19" s="17"/>
@@ -2429,15 +2472,15 @@
       <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="68"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="54">
+      <c r="A20" s="60"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="65">
         <v>3051811</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="65">
         <v>1</v>
       </c>
       <c r="F20" s="17"/>
@@ -2454,38 +2497,38 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
     </row>
-    <row r="21" spans="1:18" s="51" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="52" t="s">
+    <row r="21" spans="1:18" s="86" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="F21"/>
+      <c r="F21" s="85"/>
     </row>
     <row r="22" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="65">
         <v>3052500</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="65">
         <v>577</v>
       </c>
       <c r="F22" s="17"/>
@@ -2503,15 +2546,15 @@
       <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="67"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="16">
+      <c r="A23" s="59"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="65">
         <v>3052500</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="65">
         <v>1</v>
       </c>
       <c r="F23" s="17"/>
@@ -2529,15 +2572,15 @@
       <c r="R23" s="12"/>
     </row>
     <row r="24" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="67"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="16">
+      <c r="A24" s="59"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="65">
         <v>3052500</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="65">
         <v>41</v>
       </c>
       <c r="F24" s="17"/>
@@ -2555,17 +2598,17 @@
       <c r="R24" s="12"/>
     </row>
     <row r="25" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="67"/>
-      <c r="B25" s="64" t="s">
+      <c r="A25" s="59"/>
+      <c r="B25" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="65">
         <v>3052501</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="65">
         <v>1153</v>
       </c>
       <c r="F25" s="17"/>
@@ -2583,15 +2626,15 @@
       <c r="R25" s="12"/>
     </row>
     <row r="26" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="67"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="16">
+      <c r="A26" s="59"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="65">
         <v>3052501</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="65">
         <v>1</v>
       </c>
       <c r="F26" s="17"/>
@@ -2609,15 +2652,15 @@
       <c r="R26" s="12"/>
     </row>
     <row r="27" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="68"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="54">
+      <c r="A27" s="60"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="65">
         <v>3052501</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="65">
         <v>41</v>
       </c>
       <c r="F27" s="17"/>
@@ -2635,19 +2678,19 @@
       <c r="R27" s="12"/>
     </row>
     <row r="28" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="65">
         <v>3052510</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28" s="65">
         <v>577</v>
       </c>
       <c r="F28" s="17"/>
@@ -2665,15 +2708,15 @@
       <c r="R28" s="12"/>
     </row>
     <row r="29" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="67"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="16">
+      <c r="A29" s="59"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="65">
         <v>3052510</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="65">
         <v>1</v>
       </c>
       <c r="F29" s="17"/>
@@ -2691,15 +2734,15 @@
       <c r="R29" s="12"/>
     </row>
     <row r="30" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="67"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="16">
+      <c r="A30" s="59"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="65">
         <v>3052510</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="65">
         <v>41</v>
       </c>
       <c r="F30" s="17"/>
@@ -2717,17 +2760,17 @@
       <c r="R30" s="12"/>
     </row>
     <row r="31" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="67"/>
-      <c r="B31" s="64" t="s">
+      <c r="A31" s="59"/>
+      <c r="B31" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="65">
         <v>3052511</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="65">
         <v>1153</v>
       </c>
       <c r="F31" s="17"/>
@@ -2745,15 +2788,15 @@
       <c r="R31" s="12"/>
     </row>
     <row r="32" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="67"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="16">
+      <c r="A32" s="59"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="65">
         <v>3052511</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="65">
         <v>1</v>
       </c>
       <c r="F32" s="17"/>
@@ -2771,15 +2814,15 @@
       <c r="R32" s="12"/>
     </row>
     <row r="33" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="68"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="54">
+      <c r="A33" s="60"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="65">
         <v>3052511</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="65">
         <v>41</v>
       </c>
       <c r="F33" s="17"/>
@@ -2797,19 +2840,19 @@
       <c r="R33" s="12"/>
     </row>
     <row r="34" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="65">
         <v>3052600</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="56" t="s">
+      <c r="E34" s="65" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="17"/>
@@ -2827,17 +2870,17 @@
       <c r="R34" s="12"/>
     </row>
     <row r="35" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="79"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="56"/>
+      <c r="B35" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="65">
         <v>3052601</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="65" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="17"/>
@@ -2855,17 +2898,17 @@
       <c r="R35" s="12"/>
     </row>
     <row r="36" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="79"/>
-      <c r="B36" s="53" t="s">
+      <c r="A36" s="56"/>
+      <c r="B36" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="65">
         <v>3052602</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="65">
         <v>1023</v>
       </c>
       <c r="F36" s="17"/>
@@ -2883,17 +2926,17 @@
       <c r="R36" s="12"/>
     </row>
     <row r="37" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="79"/>
-      <c r="B37" s="81" t="s">
+      <c r="A37" s="56"/>
+      <c r="B37" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="65">
         <v>3052603</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="65">
         <v>5315</v>
       </c>
       <c r="F37" s="18"/>
@@ -2911,15 +2954,15 @@
       <c r="R37" s="12"/>
     </row>
     <row r="38" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="79"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="16">
+      <c r="A38" s="56"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="65">
         <v>3052603</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="65">
         <v>1</v>
       </c>
       <c r="F38" s="18"/>
@@ -2937,15 +2980,15 @@
       <c r="R38" s="12"/>
     </row>
     <row r="39" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="79"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="16">
+      <c r="A39" s="56"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="65">
         <v>3052603</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="65">
         <v>21</v>
       </c>
       <c r="F39" s="18"/>
@@ -2963,17 +3006,17 @@
       <c r="R39" s="12"/>
     </row>
     <row r="40" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="79"/>
-      <c r="B40" s="81" t="s">
+      <c r="A40" s="56"/>
+      <c r="B40" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="65">
         <v>3052604</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="65">
         <v>10633</v>
       </c>
       <c r="F40" s="18"/>
@@ -2991,15 +3034,15 @@
       <c r="R40" s="12"/>
     </row>
     <row r="41" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="79"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="16">
+      <c r="A41" s="56"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="65">
         <v>3052604</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="65">
         <v>2</v>
       </c>
       <c r="F41" s="18"/>
@@ -3017,15 +3060,15 @@
       <c r="R41" s="12"/>
     </row>
     <row r="42" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="79"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="16">
+      <c r="A42" s="56"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="65">
         <v>3052604</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="65">
         <v>10</v>
       </c>
       <c r="F42" s="18"/>
@@ -3043,17 +3086,17 @@
       <c r="R42" s="12"/>
     </row>
     <row r="43" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="79"/>
-      <c r="B43" s="81" t="s">
+      <c r="A43" s="56"/>
+      <c r="B43" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="65">
         <v>3052605</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="65">
         <v>6910</v>
       </c>
       <c r="F43" s="18"/>
@@ -3071,15 +3114,15 @@
       <c r="R43" s="12"/>
     </row>
     <row r="44" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="79"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="16">
+      <c r="A44" s="56"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="65">
         <v>3052605</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="65">
         <v>2</v>
       </c>
       <c r="F44" s="18"/>
@@ -3097,15 +3140,15 @@
       <c r="R44" s="12"/>
     </row>
     <row r="45" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="79"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="16">
+      <c r="A45" s="56"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="65">
         <v>3052605</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="65">
         <v>10</v>
       </c>
       <c r="F45" s="18"/>
@@ -3123,17 +3166,17 @@
       <c r="R45" s="12"/>
     </row>
     <row r="46" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79"/>
-      <c r="B46" s="81" t="s">
+      <c r="A46" s="56"/>
+      <c r="B46" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="65">
         <v>3052606</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="65">
         <v>6377</v>
       </c>
       <c r="F46" s="18"/>
@@ -3151,15 +3194,15 @@
       <c r="R46" s="12"/>
     </row>
     <row r="47" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="79"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="16">
+      <c r="A47" s="56"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="65">
         <v>3052606</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="65">
         <v>2</v>
       </c>
       <c r="F47" s="18"/>
@@ -3177,15 +3220,15 @@
       <c r="R47" s="12"/>
     </row>
     <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="16">
+      <c r="A48" s="56"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="65">
         <v>3052606</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="65">
         <v>10</v>
       </c>
       <c r="F48" s="18"/>
@@ -3203,18 +3246,18 @@
       <c r="R48" s="12"/>
     </row>
     <row r="49" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="79"/>
-      <c r="B49" s="53" t="s">
+      <c r="A49" s="56"/>
+      <c r="B49" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="65">
         <v>3052607</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>0</v>
+      <c r="D49" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="65" t="s">
+        <v>70</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="16"/>
@@ -3231,18 +3274,18 @@
       <c r="R49" s="12"/>
     </row>
     <row r="50" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="80"/>
-      <c r="B50" s="60" t="s">
+      <c r="A50" s="57"/>
+      <c r="B50" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="54">
+      <c r="C50" s="65">
         <v>3052608</v>
       </c>
-      <c r="D50" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="54" t="s">
-        <v>0</v>
+      <c r="D50" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="16"/>
@@ -3259,20 +3302,20 @@
       <c r="R50" s="12"/>
     </row>
     <row r="51" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="78" t="s">
+      <c r="A51" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="56">
+      <c r="C51" s="65">
         <v>3052700</v>
       </c>
-      <c r="D51" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="56" t="s">
-        <v>0</v>
+      <c r="D51" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="65" t="s">
+        <v>29</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="16"/>
@@ -3289,18 +3332,18 @@
       <c r="R51" s="12"/>
     </row>
     <row r="52" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="79"/>
-      <c r="B52" s="53" t="s">
+      <c r="A52" s="56"/>
+      <c r="B52" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="65">
         <v>3052701</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>0</v>
+      <c r="D52" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="65" t="s">
+        <v>28</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="16"/>
@@ -3317,17 +3360,17 @@
       <c r="R52" s="11"/>
     </row>
     <row r="53" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="79"/>
-      <c r="B53" s="81" t="s">
+      <c r="A53" s="56"/>
+      <c r="B53" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="65">
         <v>3052702</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="65">
         <v>2785</v>
       </c>
       <c r="F53" s="16"/>
@@ -3345,15 +3388,15 @@
       <c r="R53" s="12"/>
     </row>
     <row r="54" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="79"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="16">
+      <c r="A54" s="56"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="65">
         <v>3052702</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="65">
         <v>2</v>
       </c>
       <c r="F54" s="16"/>
@@ -3371,15 +3414,15 @@
       <c r="R54" s="12"/>
     </row>
     <row r="55" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="79"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="16">
+      <c r="A55" s="56"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="65">
         <v>3052702</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="65">
         <v>5</v>
       </c>
       <c r="F55" s="16"/>
@@ -3397,17 +3440,17 @@
       <c r="R55" s="12"/>
     </row>
     <row r="56" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="79"/>
-      <c r="B56" s="53" t="s">
+      <c r="A56" s="56"/>
+      <c r="B56" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="65">
         <v>3052703</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="65" t="s">
         <v>0</v>
       </c>
       <c r="F56" s="17"/>
@@ -3425,17 +3468,17 @@
       <c r="R56" s="12"/>
     </row>
     <row r="57" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="79"/>
-      <c r="B57" s="81" t="s">
+      <c r="A57" s="56"/>
+      <c r="B57" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="65">
         <v>3052704</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="65">
         <v>4453</v>
       </c>
       <c r="F57" s="16"/>
@@ -3453,15 +3496,15 @@
       <c r="R57" s="12"/>
     </row>
     <row r="58" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="79"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="16">
+      <c r="A58" s="56"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="65">
         <v>3052704</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="65">
         <v>5</v>
       </c>
       <c r="F58" s="16"/>
@@ -3479,15 +3522,15 @@
       <c r="R58" s="12"/>
     </row>
     <row r="59" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="79"/>
-      <c r="B59" s="81"/>
-      <c r="C59" s="16">
+      <c r="A59" s="56"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="65">
         <v>3052704</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="65">
         <v>5</v>
       </c>
       <c r="F59" s="16"/>
@@ -3505,17 +3548,17 @@
       <c r="R59" s="12"/>
     </row>
     <row r="60" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="79"/>
-      <c r="B60" s="81" t="s">
+      <c r="A60" s="56"/>
+      <c r="B60" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="65">
         <v>3052705</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="65">
         <v>2785</v>
       </c>
       <c r="F60" s="16"/>
@@ -3533,15 +3576,15 @@
       <c r="R60" s="12"/>
     </row>
     <row r="61" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="79"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="16">
+      <c r="A61" s="56"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="65">
         <v>3052705</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="65">
         <v>8</v>
       </c>
       <c r="F61" s="16"/>
@@ -3559,15 +3602,15 @@
       <c r="R61" s="12"/>
     </row>
     <row r="62" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="79"/>
-      <c r="B62" s="81"/>
-      <c r="C62" s="16">
+      <c r="A62" s="56"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="65">
         <v>3052705</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="65">
         <v>5</v>
       </c>
       <c r="F62" s="16"/>
@@ -3585,113 +3628,113 @@
       <c r="R62" s="12"/>
     </row>
     <row r="63" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="79"/>
-      <c r="B63" s="81" t="s">
+      <c r="A63" s="56"/>
+      <c r="B63" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="65">
         <v>3052706</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63" s="65">
         <v>5571</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
     </row>
     <row r="64" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="79"/>
-      <c r="B64" s="81"/>
-      <c r="C64" s="16">
+      <c r="A64" s="56"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="65">
         <v>3052706</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="65">
         <v>1</v>
       </c>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
     </row>
     <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="79"/>
-      <c r="B65" s="81"/>
-      <c r="C65" s="16">
+      <c r="A65" s="56"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="65">
         <v>3052706</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="65">
         <v>5</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="79"/>
-      <c r="B66" s="53" t="s">
+      <c r="A66" s="56"/>
+      <c r="B66" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="65">
         <v>3052707</v>
       </c>
-      <c r="D66" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>0</v>
+      <c r="D66" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="65" t="s">
+        <v>70</v>
       </c>
       <c r="F66" s="17"/>
       <c r="G66" s="16"/>
     </row>
     <row r="67" spans="1:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="80"/>
-      <c r="B67" s="60" t="s">
+      <c r="A67" s="57"/>
+      <c r="B67" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="54">
+      <c r="C67" s="65">
         <v>3052708</v>
       </c>
-      <c r="D67" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="54" t="s">
-        <v>0</v>
+      <c r="D67" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="F67" s="17"/>
       <c r="G67" s="16"/>
     </row>
     <row r="68" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="15"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="16"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="65"/>
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
     </row>
     <row r="69" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="16"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="65"/>
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
     </row>
     <row r="70" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="15"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="16"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="65"/>
     </row>
     <row r="71" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="15"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="16"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="65"/>
     </row>
     <row r="72" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="15"/>
@@ -3707,11 +3750,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A51:A67"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="A34:A50"/>
     <mergeCell ref="B37:B39"/>
@@ -3722,18 +3771,12 @@
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A51:A67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/로스트아크/데이터테이블/SkillEffect_Parameter_Table(데이터 추가).xlsx
+++ b/로스트아크/데이터테이블/SkillEffect_Parameter_Table(데이터 추가).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA6C709-1CF7-4A30-A94D-D8ABD5F7EEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93EA6EF-7DA5-4764-886E-FDE1DD1EE86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="74">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기획용 COMMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,14 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//효과 요약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본 공격 (난무 스탠스)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,10 +155,6 @@
   </si>
   <si>
     <t>적룡포 (변형 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//스킬 &amp; 효과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -486,6 +470,30 @@
     <t>push</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>//comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획용 스킬 명 &amp; 스킬 효과 (실제 데이터에는 적용 X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 공격 1타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 공격 2타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연격 (변형 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -496,7 +504,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,8 +640,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -682,20 +698,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="33">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -961,167 +965,97 @@
       <right style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </right>
-      <top style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,7 +1065,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1288,6 +1222,30 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1297,106 +1255,40 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="13" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="177" fontId="13" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="13" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1726,7 +1618,7 @@
   <dimension ref="B1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1742,13 +1634,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
+      <c r="C2" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1765,18 +1657,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C4" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
@@ -1788,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
@@ -1806,13 +1698,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" s="39" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -1821,13 +1713,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
@@ -1836,11 +1728,11 @@
         <v>3</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="43" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -1936,17 +1828,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.8984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.8984375" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.296875" style="4" bestFit="1" customWidth="1"/>
@@ -1959,21 +1851,21 @@
     <col min="19" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="49" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1989,47 +1881,39 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="16">
-        <v>3050000</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="16">
-        <v>50</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+    <row r="2" spans="1:18" s="52" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2"/>
     </row>
     <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="62"/>
-      <c r="B3" s="70"/>
+      <c r="A3" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>31</v>
+      </c>
       <c r="C3" s="16">
         <v>3050000</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" s="16">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -2046,18 +1930,16 @@
       <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="62"/>
-      <c r="B4" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="65">
-        <v>3050001</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="65">
-        <v>80</v>
+      <c r="A4" s="65"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="16">
+        <v>3050000</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="16">
+        <v>3</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -2073,17 +1955,19 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="63"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="65">
+    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="65"/>
+      <c r="B5" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="16">
         <v>3050001</v>
       </c>
-      <c r="D5" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="65">
-        <v>1</v>
+      <c r="D5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="16">
+        <v>80</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -2100,20 +1984,16 @@
       <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="65">
-        <v>3050010</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="65">
-        <v>30</v>
+      <c r="A6" s="65"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="16">
+        <v>3050001</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -2130,16 +2010,20 @@
       <c r="R6" s="12"/>
     </row>
     <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="68"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="65">
+      <c r="A7" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="16">
         <v>3050010</v>
       </c>
-      <c r="D7" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="65">
-        <v>1</v>
+      <c r="D7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="16">
+        <v>30</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -2155,39 +2039,47 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="1:18" s="86" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="85"/>
-    </row>
-    <row r="9" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="65">
-        <v>3051800</v>
-      </c>
-      <c r="D9" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="65">
-        <v>2</v>
+    <row r="8" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="16">
+        <v>3050010</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+    </row>
+    <row r="9" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="16">
+        <v>3050500</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="16">
+        <v>81</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -2203,17 +2095,17 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
     </row>
-    <row r="10" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="59"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="65">
-        <v>3051800</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="65">
-        <v>6</v>
+    <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="73"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="16">
+        <v>3050500</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -2230,21 +2122,19 @@
       <c r="R10" s="12"/>
     </row>
     <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="59"/>
-      <c r="B11" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="65">
-        <v>3051801</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="65">
-        <v>727</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="16">
+        <v>3050500</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="16">
+        <v>10</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -2258,19 +2148,21 @@
       <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="59"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="65">
-        <v>3051801</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="65">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="16"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="16">
+        <v>3050501</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="16">
+        <v>122</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -2284,19 +2176,19 @@
       <c r="R12" s="12"/>
     </row>
     <row r="13" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="59"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="65">
-        <v>3051801</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="65">
-        <v>29</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="16">
+        <v>3050501</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -2309,20 +2201,20 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
     </row>
-    <row r="14" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="60"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="65">
-        <v>3051801</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="65">
-        <v>1</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="16"/>
+    <row r="14" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="74"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="16">
+        <v>3050501</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="16">
+        <v>10</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -2336,23 +2228,23 @@
       <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="65">
-        <v>3051810</v>
-      </c>
-      <c r="D15" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="65">
-        <v>2</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16"/>
+      <c r="A15" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="16">
+        <v>3050510</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="16">
+        <v>81</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -2366,19 +2258,19 @@
       <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="59"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="65">
-        <v>3051810</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="65">
-        <v>6</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="16"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="16">
+        <v>3050510</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -2392,21 +2284,19 @@
       <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="59"/>
-      <c r="B17" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="65">
-        <v>3051811</v>
-      </c>
-      <c r="D17" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="65">
-        <v>727</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="16"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="16">
+        <v>3050510</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="16">
+        <v>10</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -2420,19 +2310,21 @@
       <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="59"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="65">
-        <v>3051811</v>
-      </c>
-      <c r="D18" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="65">
-        <v>1</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="16"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="16">
+        <v>3050511</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="16">
+        <v>122</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -2446,19 +2338,19 @@
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="59"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="65">
-        <v>3051811</v>
-      </c>
-      <c r="D19" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="65">
-        <v>29</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="16"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="16">
+        <v>3050511</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -2471,20 +2363,20 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
     </row>
-    <row r="20" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="60"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="65">
-        <v>3051811</v>
-      </c>
-      <c r="D20" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="65">
-        <v>1</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="16"/>
+    <row r="20" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="73"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="16">
+        <v>3050511</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="16">
+        <v>10</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -2497,42 +2389,48 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
     </row>
-    <row r="21" spans="1:18" s="86" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="85"/>
+    <row r="21" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="73"/>
+      <c r="B21" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="16">
+        <v>3050512</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="16">
+        <v>192</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
     </row>
     <row r="22" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="65">
-        <v>3052500</v>
-      </c>
-      <c r="D22" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="65">
-        <v>577</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="16"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="16">
+        <v>3050512</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -2546,19 +2444,19 @@
       <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="59"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="65">
-        <v>3052500</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="65">
-        <v>1</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="16"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="16">
+        <v>3050512</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="16">
+        <v>13</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -2571,48 +2469,42 @@
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
     </row>
-    <row r="24" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="59"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="65">
-        <v>3052500</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="65">
+    <row r="24" spans="1:18" s="52" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="16">
+        <v>3051800</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-    </row>
-    <row r="25" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="59"/>
-      <c r="B25" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="65">
-        <v>3052501</v>
-      </c>
-      <c r="D25" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="65">
-        <v>1153</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="16"/>
+      <c r="E25" s="16">
+        <v>2</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -2625,20 +2517,20 @@
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
     </row>
-    <row r="26" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="59"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="65">
-        <v>3052501</v>
-      </c>
-      <c r="D26" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="65">
-        <v>1</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="16"/>
+    <row r="26" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="63"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="16">
+        <v>3051800</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="16">
+        <v>6</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -2651,17 +2543,19 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="60"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="65">
-        <v>3052501</v>
-      </c>
-      <c r="D27" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="65">
-        <v>41</v>
+    <row r="27" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="63"/>
+      <c r="B27" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="16">
+        <v>3051801</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="16">
+        <v>727</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="16"/>
@@ -2678,20 +2572,16 @@
       <c r="R27" s="12"/>
     </row>
     <row r="28" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="65">
-        <v>3052510</v>
-      </c>
-      <c r="D28" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="65">
-        <v>577</v>
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="16">
+        <v>3051801</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="16"/>
@@ -2708,16 +2598,16 @@
       <c r="R28" s="12"/>
     </row>
     <row r="29" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="59"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="65">
-        <v>3052510</v>
-      </c>
-      <c r="D29" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="65">
-        <v>1</v>
+      <c r="A29" s="63"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="16">
+        <v>3051801</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="16">
+        <v>29</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="16"/>
@@ -2734,16 +2624,16 @@
       <c r="R29" s="12"/>
     </row>
     <row r="30" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="59"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="65">
-        <v>3052510</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="65">
-        <v>41</v>
+      <c r="A30" s="63"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="16">
+        <v>3051801</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="16"/>
@@ -2760,18 +2650,20 @@
       <c r="R30" s="12"/>
     </row>
     <row r="31" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="59"/>
-      <c r="B31" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="65">
-        <v>3052511</v>
-      </c>
-      <c r="D31" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="65">
-        <v>1153</v>
+      <c r="A31" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="16">
+        <v>3051810</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="16">
+        <v>2</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="16"/>
@@ -2788,16 +2680,16 @@
       <c r="R31" s="12"/>
     </row>
     <row r="32" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="59"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="65">
-        <v>3052511</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="65">
-        <v>1</v>
+      <c r="A32" s="63"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="16">
+        <v>3051810</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="16">
+        <v>6</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="16"/>
@@ -2813,17 +2705,19 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
     </row>
-    <row r="33" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="60"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="65">
-        <v>3052511</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="65">
-        <v>41</v>
+    <row r="33" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="63"/>
+      <c r="B33" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="16">
+        <v>3051811</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="16">
+        <v>727</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="16"/>
@@ -2840,20 +2734,16 @@
       <c r="R33" s="12"/>
     </row>
     <row r="34" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="65">
-        <v>3052600</v>
-      </c>
-      <c r="D34" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="65" t="s">
-        <v>29</v>
+      <c r="A34" s="63"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="16">
+        <v>3051811</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="16">
+        <v>1</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="16"/>
@@ -2870,18 +2760,16 @@
       <c r="R34" s="12"/>
     </row>
     <row r="35" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="56"/>
-      <c r="B35" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="65">
-        <v>3052601</v>
-      </c>
-      <c r="D35" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="65" t="s">
-        <v>28</v>
+      <c r="A35" s="63"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="16">
+        <v>3051811</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="16">
+        <v>29</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="16"/>
@@ -2898,18 +2786,16 @@
       <c r="R35" s="12"/>
     </row>
     <row r="36" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="56"/>
-      <c r="B36" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="65">
-        <v>3052602</v>
-      </c>
-      <c r="D36" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="65">
-        <v>1023</v>
+      <c r="A36" s="63"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="16">
+        <v>3051811</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="16">
+        <v>1</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="16"/>
@@ -2925,47 +2811,41 @@
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
     </row>
-    <row r="37" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="56"/>
-      <c r="B37" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="65">
-        <v>3052603</v>
-      </c>
-      <c r="D37" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="65">
-        <v>5315</v>
-      </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
+    <row r="37" spans="1:18" s="52" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37"/>
     </row>
     <row r="38" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="56"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="65">
-        <v>3052603</v>
-      </c>
-      <c r="D38" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="65">
-        <v>1</v>
-      </c>
-      <c r="F38" s="18"/>
+      <c r="A38" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="54">
+        <v>3052500</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="16">
+        <v>577</v>
+      </c>
+      <c r="F38" s="17"/>
       <c r="G38" s="16"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
@@ -2980,18 +2860,18 @@
       <c r="R38" s="12"/>
     </row>
     <row r="39" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="56"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="65">
-        <v>3052603</v>
-      </c>
-      <c r="D39" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="65">
-        <v>21</v>
-      </c>
-      <c r="F39" s="18"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="16">
+        <v>3052500</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="16">
+        <v>1</v>
+      </c>
+      <c r="F39" s="17"/>
       <c r="G39" s="16"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
@@ -3006,20 +2886,18 @@
       <c r="R39" s="12"/>
     </row>
     <row r="40" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="56"/>
-      <c r="B40" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="65">
-        <v>3052604</v>
-      </c>
-      <c r="D40" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="65">
-        <v>10633</v>
-      </c>
-      <c r="F40" s="18"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="16">
+        <v>3052500</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="16">
+        <v>41</v>
+      </c>
+      <c r="F40" s="17"/>
       <c r="G40" s="16"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -3034,18 +2912,20 @@
       <c r="R40" s="12"/>
     </row>
     <row r="41" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="56"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="65">
-        <v>3052604</v>
-      </c>
-      <c r="D41" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="65">
-        <v>2</v>
-      </c>
-      <c r="F41" s="18"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="16">
+        <v>3052501</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="16">
+        <v>1153</v>
+      </c>
+      <c r="F41" s="17"/>
       <c r="G41" s="16"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
@@ -3060,18 +2940,18 @@
       <c r="R41" s="12"/>
     </row>
     <row r="42" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="56"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="65">
-        <v>3052604</v>
-      </c>
-      <c r="D42" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="65">
-        <v>10</v>
-      </c>
-      <c r="F42" s="18"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="16">
+        <v>3052501</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="16">
+        <v>1</v>
+      </c>
+      <c r="F42" s="17"/>
       <c r="G42" s="16"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
@@ -3086,20 +2966,18 @@
       <c r="R42" s="12"/>
     </row>
     <row r="43" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="56"/>
-      <c r="B43" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="65">
-        <v>3052605</v>
-      </c>
-      <c r="D43" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="65">
-        <v>6910</v>
-      </c>
-      <c r="F43" s="18"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="16">
+        <v>3052501</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="16">
+        <v>41</v>
+      </c>
+      <c r="F43" s="17"/>
       <c r="G43" s="16"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
@@ -3114,18 +2992,22 @@
       <c r="R43" s="12"/>
     </row>
     <row r="44" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="56"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="65">
-        <v>3052605</v>
-      </c>
-      <c r="D44" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="65">
-        <v>2</v>
-      </c>
-      <c r="F44" s="18"/>
+      <c r="A44" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="16">
+        <v>3052510</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="16">
+        <v>577</v>
+      </c>
+      <c r="F44" s="17"/>
       <c r="G44" s="16"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -3140,18 +3022,18 @@
       <c r="R44" s="12"/>
     </row>
     <row r="45" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="56"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="65">
-        <v>3052605</v>
-      </c>
-      <c r="D45" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="65">
-        <v>10</v>
-      </c>
-      <c r="F45" s="18"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="16">
+        <v>3052510</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="16">
+        <v>1</v>
+      </c>
+      <c r="F45" s="17"/>
       <c r="G45" s="16"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
@@ -3166,20 +3048,18 @@
       <c r="R45" s="12"/>
     </row>
     <row r="46" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="56"/>
-      <c r="B46" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="65">
-        <v>3052606</v>
-      </c>
-      <c r="D46" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="65">
-        <v>6377</v>
-      </c>
-      <c r="F46" s="18"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="16">
+        <v>3052510</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="16">
+        <v>41</v>
+      </c>
+      <c r="F46" s="17"/>
       <c r="G46" s="16"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -3194,18 +3074,20 @@
       <c r="R46" s="12"/>
     </row>
     <row r="47" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="56"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="65">
-        <v>3052606</v>
-      </c>
-      <c r="D47" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="65">
-        <v>2</v>
-      </c>
-      <c r="F47" s="18"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="16">
+        <v>3052511</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="16">
+        <v>1153</v>
+      </c>
+      <c r="F47" s="17"/>
       <c r="G47" s="16"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
@@ -3220,18 +3102,18 @@
       <c r="R47" s="12"/>
     </row>
     <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="56"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="65">
-        <v>3052606</v>
-      </c>
-      <c r="D48" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="65">
-        <v>10</v>
-      </c>
-      <c r="F48" s="18"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="16">
+        <v>3052511</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="16">
+        <v>1</v>
+      </c>
+      <c r="F48" s="17"/>
       <c r="G48" s="16"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
@@ -3246,18 +3128,16 @@
       <c r="R48" s="12"/>
     </row>
     <row r="49" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="56"/>
-      <c r="B49" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="65">
-        <v>3052607</v>
-      </c>
-      <c r="D49" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="65" t="s">
-        <v>70</v>
+      <c r="A49" s="63"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="16">
+        <v>3052511</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="16">
+        <v>41</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="16"/>
@@ -3273,21 +3153,23 @@
       <c r="Q49" s="12"/>
       <c r="R49" s="12"/>
     </row>
-    <row r="50" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="57"/>
-      <c r="B50" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="65">
-        <v>3052608</v>
-      </c>
-      <c r="D50" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="F50" s="18"/>
+    <row r="50" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="16">
+        <v>3052600</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="17"/>
       <c r="G50" s="16"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
@@ -3302,20 +3184,18 @@
       <c r="R50" s="12"/>
     </row>
     <row r="51" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="65">
-        <v>3052700</v>
-      </c>
-      <c r="D51" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="E51" s="65" t="s">
-        <v>29</v>
+      <c r="A51" s="67"/>
+      <c r="B51" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="16">
+        <v>3052601</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="16"/>
@@ -3332,48 +3212,48 @@
       <c r="R51" s="12"/>
     </row>
     <row r="52" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="56"/>
-      <c r="B52" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="65">
-        <v>3052701</v>
-      </c>
-      <c r="D52" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="65" t="s">
-        <v>28</v>
+      <c r="A52" s="67"/>
+      <c r="B52" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="16">
+        <v>3052602</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="16">
+        <v>1023</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="16"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-    </row>
-    <row r="53" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="56"/>
-      <c r="B53" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="65">
-        <v>3052702</v>
-      </c>
-      <c r="D53" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="65">
-        <v>2785</v>
-      </c>
-      <c r="F53" s="16"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+    </row>
+    <row r="53" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="67"/>
+      <c r="B53" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="16">
+        <v>3052603</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="16">
+        <v>5315</v>
+      </c>
+      <c r="F53" s="18"/>
       <c r="G53" s="16"/>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
@@ -3387,19 +3267,19 @@
       <c r="Q53" s="12"/>
       <c r="R53" s="12"/>
     </row>
-    <row r="54" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="56"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="65">
-        <v>3052702</v>
-      </c>
-      <c r="D54" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="65">
-        <v>2</v>
-      </c>
-      <c r="F54" s="16"/>
+    <row r="54" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="67"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="16">
+        <v>3052603</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="16">
+        <v>1</v>
+      </c>
+      <c r="F54" s="18"/>
       <c r="G54" s="16"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -3413,19 +3293,19 @@
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
     </row>
-    <row r="55" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="56"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="65">
-        <v>3052702</v>
-      </c>
-      <c r="D55" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="65">
-        <v>5</v>
-      </c>
-      <c r="F55" s="16"/>
+    <row r="55" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="67"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="16">
+        <v>3052603</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="16">
+        <v>21</v>
+      </c>
+      <c r="F55" s="18"/>
       <c r="G55" s="16"/>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -3439,21 +3319,21 @@
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
     </row>
-    <row r="56" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="56"/>
-      <c r="B56" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="65">
-        <v>3052703</v>
-      </c>
-      <c r="D56" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="F56" s="17"/>
+    <row r="56" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="67"/>
+      <c r="B56" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="16">
+        <v>3052604</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="16">
+        <v>10633</v>
+      </c>
+      <c r="F56" s="18"/>
       <c r="G56" s="16"/>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
@@ -3468,20 +3348,18 @@
       <c r="R56" s="12"/>
     </row>
     <row r="57" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="56"/>
-      <c r="B57" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="65">
-        <v>3052704</v>
-      </c>
-      <c r="D57" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" s="65">
-        <v>4453</v>
-      </c>
-      <c r="F57" s="16"/>
+      <c r="A57" s="67"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="16">
+        <v>3052604</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="16">
+        <v>2</v>
+      </c>
+      <c r="F57" s="18"/>
       <c r="G57" s="16"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
@@ -3496,18 +3374,18 @@
       <c r="R57" s="12"/>
     </row>
     <row r="58" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="56"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="65">
-        <v>3052704</v>
-      </c>
-      <c r="D58" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="65">
-        <v>5</v>
-      </c>
-      <c r="F58" s="16"/>
+      <c r="A58" s="67"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="16">
+        <v>3052604</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="16">
+        <v>10</v>
+      </c>
+      <c r="F58" s="18"/>
       <c r="G58" s="16"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
@@ -3522,18 +3400,20 @@
       <c r="R58" s="12"/>
     </row>
     <row r="59" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="56"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="65">
-        <v>3052704</v>
-      </c>
-      <c r="D59" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="65">
-        <v>5</v>
-      </c>
-      <c r="F59" s="16"/>
+      <c r="A59" s="67"/>
+      <c r="B59" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="16">
+        <v>3052605</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" s="16">
+        <v>6910</v>
+      </c>
+      <c r="F59" s="18"/>
       <c r="G59" s="16"/>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
@@ -3547,21 +3427,19 @@
       <c r="Q59" s="12"/>
       <c r="R59" s="12"/>
     </row>
-    <row r="60" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="56"/>
-      <c r="B60" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="65">
-        <v>3052705</v>
-      </c>
-      <c r="D60" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="E60" s="65">
-        <v>2785</v>
-      </c>
-      <c r="F60" s="16"/>
+    <row r="60" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="67"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="16">
+        <v>3052605</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="16">
+        <v>2</v>
+      </c>
+      <c r="F60" s="18"/>
       <c r="G60" s="16"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
@@ -3575,19 +3453,19 @@
       <c r="Q60" s="12"/>
       <c r="R60" s="12"/>
     </row>
-    <row r="61" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="56"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="65">
-        <v>3052705</v>
-      </c>
-      <c r="D61" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="65">
-        <v>8</v>
-      </c>
-      <c r="F61" s="16"/>
+    <row r="61" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="67"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="16">
+        <v>3052605</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="16">
+        <v>10</v>
+      </c>
+      <c r="F61" s="18"/>
       <c r="G61" s="16"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
@@ -3601,19 +3479,21 @@
       <c r="Q61" s="12"/>
       <c r="R61" s="12"/>
     </row>
-    <row r="62" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="56"/>
-      <c r="B62" s="80"/>
-      <c r="C62" s="65">
-        <v>3052705</v>
-      </c>
-      <c r="D62" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" s="65">
-        <v>5</v>
-      </c>
-      <c r="F62" s="16"/>
+    <row r="62" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="67"/>
+      <c r="B62" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="16">
+        <v>3052606</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="16">
+        <v>6377</v>
+      </c>
+      <c r="F62" s="18"/>
       <c r="G62" s="16"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
@@ -3628,155 +3508,606 @@
       <c r="R62" s="12"/>
     </row>
     <row r="63" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="56"/>
-      <c r="B63" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="65">
-        <v>3052706</v>
-      </c>
-      <c r="D63" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="E63" s="65">
-        <v>5571</v>
-      </c>
-      <c r="F63" s="16"/>
+      <c r="A63" s="67"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="16">
+        <v>3052606</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="16">
+        <v>2</v>
+      </c>
+      <c r="F63" s="18"/>
       <c r="G63" s="16"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
     </row>
     <row r="64" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="56"/>
-      <c r="B64" s="80"/>
-      <c r="C64" s="65">
-        <v>3052706</v>
-      </c>
-      <c r="D64" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64" s="65">
-        <v>1</v>
-      </c>
-      <c r="F64" s="16"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="16">
+        <v>3052606</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="16">
+        <v>10</v>
+      </c>
+      <c r="F64" s="18"/>
       <c r="G64" s="16"/>
-    </row>
-    <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="56"/>
-      <c r="B65" s="80"/>
-      <c r="C65" s="65">
-        <v>3052706</v>
-      </c>
-      <c r="D65" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E65" s="65">
-        <v>5</v>
-      </c>
-      <c r="F65" s="16"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+    </row>
+    <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="67"/>
+      <c r="B65" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="16">
+        <v>3052607</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="17"/>
       <c r="G65" s="16"/>
-    </row>
-    <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="56"/>
-      <c r="B66" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="65">
-        <v>3052707</v>
-      </c>
-      <c r="D66" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66" s="17"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+    </row>
+    <row r="66" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="67"/>
+      <c r="B66" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="16">
+        <v>3052608</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="18"/>
       <c r="G66" s="16"/>
-    </row>
-    <row r="67" spans="1:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="57"/>
-      <c r="B67" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="65">
-        <v>3052708</v>
-      </c>
-      <c r="D67" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="65" t="s">
-        <v>71</v>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+    </row>
+    <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="16">
+        <v>3052700</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="F67" s="17"/>
       <c r="G67" s="16"/>
-    </row>
-    <row r="68" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="15"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-    </row>
-    <row r="69" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="15"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-    </row>
-    <row r="70" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="15"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="65"/>
-    </row>
-    <row r="71" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="15"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="65"/>
-    </row>
-    <row r="72" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="15"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="16"/>
-    </row>
-    <row r="73" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="15"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="16"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+    </row>
+    <row r="68" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="67"/>
+      <c r="B68" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="16">
+        <v>3052701</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="17"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+    </row>
+    <row r="69" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="67"/>
+      <c r="B69" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="16">
+        <v>3052702</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="16">
+        <v>2785</v>
+      </c>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+    </row>
+    <row r="70" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="67"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="16">
+        <v>3052702</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="16">
+        <v>2</v>
+      </c>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+    </row>
+    <row r="71" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="67"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="16">
+        <v>3052702</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" s="16">
+        <v>5</v>
+      </c>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+    </row>
+    <row r="72" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="67"/>
+      <c r="B72" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="16">
+        <v>3052703</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="17"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+    </row>
+    <row r="73" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="67"/>
+      <c r="B73" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="16">
+        <v>3052704</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="16">
+        <v>4453</v>
+      </c>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+    </row>
+    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="67"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="16">
+        <v>3052704</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" s="16">
+        <v>5</v>
+      </c>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+    </row>
+    <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="67"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="16">
+        <v>3052704</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="16">
+        <v>5</v>
+      </c>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+    </row>
+    <row r="76" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="67"/>
+      <c r="B76" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="16">
+        <v>3052705</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E76" s="16">
+        <v>2785</v>
+      </c>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+    </row>
+    <row r="77" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="67"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="16">
+        <v>3052705</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="16">
+        <v>8</v>
+      </c>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+    </row>
+    <row r="78" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="67"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="16">
+        <v>3052705</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="16">
+        <v>5</v>
+      </c>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+    </row>
+    <row r="79" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="67"/>
+      <c r="B79" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="16">
+        <v>3052706</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E79" s="16">
+        <v>5571</v>
+      </c>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+    </row>
+    <row r="80" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="67"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="16">
+        <v>3052706</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="16">
+        <v>1</v>
+      </c>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+    </row>
+    <row r="81" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="67"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="16">
+        <v>3052706</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E81" s="16">
+        <v>5</v>
+      </c>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+    </row>
+    <row r="82" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="67"/>
+      <c r="B82" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="16">
+        <v>3052707</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F82" s="17"/>
+      <c r="G82" s="16"/>
+    </row>
+    <row r="83" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="67"/>
+      <c r="B83" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="16">
+        <v>3052708</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F83" s="17"/>
+      <c r="G83" s="16"/>
+    </row>
+    <row r="84" spans="1:7" s="52" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B85" s="15"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+    </row>
+    <row r="86" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B86" s="15"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="16"/>
+    </row>
+    <row r="87" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B87" s="15"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="16"/>
+    </row>
+    <row r="88" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B88" s="15"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="16"/>
+    </row>
+    <row r="89" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="15"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
+  <mergeCells count="34">
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="A67:A83"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A50:A66"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A34:A50"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A51:A67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
